--- a/Game Design/Cards.xlsx
+++ b/Game Design/Cards.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4290" yWindow="1710" windowWidth="21000" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Card</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>mimics damage</t>
+  </si>
+  <si>
+    <t>Extended description</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -205,11 +208,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,6 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -246,9 +259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -286,9 +299,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,7 +371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -532,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,9 +556,10 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -576,8 +590,11 @@
       <c r="J1" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -605,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -631,7 +648,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -659,7 +676,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -687,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -713,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -743,47 +760,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>

--- a/Game Design/Cards.xlsx
+++ b/Game Design/Cards.xlsx
@@ -548,13 +548,14 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>

--- a/Game Design/Cards.xlsx
+++ b/Game Design/Cards.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,15 +638,17 @@
         <v>10</v>
       </c>
       <c r="G3" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -666,15 +668,17 @@
         <v>11</v>
       </c>
       <c r="G4" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I4" s="2">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -692,13 +696,13 @@
         <v>16</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H5" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -718,13 +722,13 @@
         <v>15</v>
       </c>
       <c r="G6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -748,13 +752,13 @@
         <v>14</v>
       </c>
       <c r="G7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>

--- a/Game Design/Cards.xlsx
+++ b/Game Design/Cards.xlsx
@@ -548,14 +548,13 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>
@@ -639,15 +638,17 @@
         <v>10</v>
       </c>
       <c r="G3" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -667,15 +668,17 @@
         <v>11</v>
       </c>
       <c r="G4" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I4" s="2">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -693,13 +696,13 @@
         <v>16</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H5" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -719,13 +722,13 @@
         <v>15</v>
       </c>
       <c r="G6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -749,13 +752,13 @@
         <v>14</v>
       </c>
       <c r="G7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>

--- a/Game Design/Cards.xlsx
+++ b/Game Design/Cards.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +638,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -668,10 +668,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2">
         <v>4</v>
@@ -752,10 +752,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>

--- a/Game Design/Cards.xlsx
+++ b/Game Design/Cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="1710" windowWidth="21000" windowHeight="6660"/>
+    <workbookView xWindow="4290" yWindow="1770" windowWidth="21000" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,16 +118,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -217,11 +286,199 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,19 +487,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="20 % - Akzent1" xfId="5" builtinId="30"/>
+    <cellStyle name="Ausgabe" xfId="4" builtinId="21"/>
+    <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,55 +853,55 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="13">
         <v>0</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3">
@@ -634,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="14">
         <v>2</v>
       </c>
       <c r="H3" s="2">
@@ -651,7 +929,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
@@ -664,10 +942,10 @@
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="14">
         <v>1</v>
       </c>
       <c r="H4" s="2">
@@ -681,7 +959,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="3"/>
@@ -692,10 +970,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="14">
         <v>2</v>
       </c>
       <c r="H5" s="2">
@@ -709,7 +987,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3"/>
@@ -718,10 +996,10 @@
       <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="14">
         <v>2</v>
       </c>
       <c r="H6" s="2">
@@ -734,24 +1012,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22">
         <v>0.15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="14">
         <v>3</v>
       </c>
       <c r="H7" s="2">
@@ -821,5 +1099,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Game Design/Cards.xlsx
+++ b/Game Design/Cards.xlsx
@@ -46,12 +46,6 @@
     <t>Wrath</t>
   </si>
   <si>
-    <t>Powerful blow</t>
-  </si>
-  <si>
-    <t>Enemy looses next action.</t>
-  </si>
-  <si>
     <t>range</t>
   </si>
   <si>
@@ -61,12 +55,6 @@
     <t>Absorbs next attack</t>
   </si>
   <si>
-    <t>Reflects received damage</t>
-  </si>
-  <si>
-    <t>Heals up to half HP</t>
-  </si>
-  <si>
     <t>±0,2</t>
   </si>
   <si>
@@ -104,6 +92,18 @@
   </si>
   <si>
     <t>Extended description</t>
+  </si>
+  <si>
+    <t>Enemy loses next action.</t>
+  </si>
+  <si>
+    <t>Deals about double damage.</t>
+  </si>
+  <si>
+    <t>Heals up to half HP.</t>
+  </si>
+  <si>
+    <t>Reflects just received damage</t>
   </si>
 </sst>
 </file>
@@ -825,15 +825,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -848,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
@@ -857,19 +857,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="17" t="s">
@@ -909,11 +909,11 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="19" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G3" s="14">
         <v>2</v>
@@ -937,13 +937,13 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G4" s="14">
         <v>1</v>
@@ -960,18 +960,18 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
         <v>0.4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G5" s="14">
         <v>2</v>
@@ -988,16 +988,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G6" s="14">
         <v>2</v>
@@ -1014,20 +1014,20 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22">
         <v>0.15</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="14">
         <v>3</v>

--- a/Game Design/Cards.xlsx
+++ b/Game Design/Cards.xlsx
@@ -103,7 +103,7 @@
     <t>Heals up to half HP.</t>
   </si>
   <si>
-    <t>Reflects just received damage</t>
+    <t>Deals damagebased on own wounds</t>
   </si>
 </sst>
 </file>
@@ -826,14 +826,14 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Game Design/Cards.xlsx
+++ b/Game Design/Cards.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Card</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Stun</t>
   </si>
   <si>
-    <t>Basic weapon hit</t>
-  </si>
-  <si>
     <t>stuns</t>
   </si>
   <si>
@@ -52,18 +49,12 @@
     <t>shield</t>
   </si>
   <si>
-    <t>Absorbs next attack</t>
-  </si>
-  <si>
     <t>±0,2</t>
   </si>
   <si>
     <t>±0,5</t>
   </si>
   <si>
-    <t>±0,1</t>
-  </si>
-  <si>
     <t>±0,05</t>
   </si>
   <si>
@@ -94,23 +85,35 @@
     <t>Extended description</t>
   </si>
   <si>
-    <t>Enemy loses next action.</t>
-  </si>
-  <si>
     <t>Deals about double damage.</t>
   </si>
   <si>
-    <t>Heals up to half HP.</t>
-  </si>
-  <si>
-    <t>Deals damagebased on own wounds</t>
+    <t>±0,4</t>
+  </si>
+  <si>
+    <t>double just received damage</t>
+  </si>
+  <si>
+    <t>Returns last hit, doubled.</t>
+  </si>
+  <si>
+    <t>Absorbs next attack, minor healing.</t>
+  </si>
+  <si>
+    <t>Heals more than half HP.</t>
+  </si>
+  <si>
+    <t>Deals damage and paralyzes for one round.</t>
+  </si>
+  <si>
+    <t>Basic weapon hit.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +164,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -478,7 +489,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -514,6 +525,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Akzent1" xfId="5" builtinId="30"/>
@@ -826,14 +846,15 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -848,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
@@ -857,19 +878,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -881,11 +902,11 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="17" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G2" s="13">
         <v>0</v>
@@ -902,21 +923,21 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G3" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -932,24 +953,24 @@
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" s="14">
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -960,24 +981,24 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
+      <c r="C5" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -988,22 +1009,24 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -1014,23 +1037,23 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="22"/>
-      <c r="C7" s="22">
-        <v>0.15</v>
+      <c r="C7" s="26">
+        <v>0.2</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G7" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
